--- a/DropTable.xlsx
+++ b/DropTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93D1AF4-A981-46CA-86F1-C284D13AA22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">From </t>
+  </si>
   <si>
     <t>To</t>
   </si>
@@ -36,51 +40,23 @@
     <t>Red</t>
   </si>
   <si>
-    <t>Yellow</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
     <t>Blue</t>
   </si>
   <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Black 1.4m</t>
-  </si>
-  <si>
-    <t>Red 1.7m</t>
-  </si>
-  <si>
-    <t>Yellow 2.0m</t>
-  </si>
-  <si>
-    <t>White 2.4m</t>
-  </si>
-  <si>
-    <t>Blue 2.9m</t>
-  </si>
-  <si>
-    <t>From</t>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,15 +82,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -161,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,9 +176,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,6 +228,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,33 +421,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -436,121 +452,106 @@
         <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>151</v>
       </c>
       <c r="B3">
         <v>1200</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3">
+        <v>1200</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1201</v>
       </c>
       <c r="B4">
         <v>1500</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4">
+        <v>1500</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1501</v>
       </c>
       <c r="B5">
         <v>1800</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
+      <c r="C5">
+        <v>1800</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1801</v>
       </c>
       <c r="B6">
         <v>2200</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="C6">
+        <v>2200</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2201</v>
       </c>
       <c r="B7">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>2701</v>
-      </c>
-      <c r="B8">
-        <v>4000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
